--- a/Progress_Report_Template.xlsx
+++ b/Progress_Report_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igoro.000\Desktop\Uni\2025_Spring\CAPSTONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723D8A46-F9BB-42B7-8EC1-0CC6487D9A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5FDDB7-E552-4CB7-A289-2EB16479798C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F8264B3E-9ADD-4D2D-8348-27F6DED4C428}"/>
   </bookViews>
@@ -703,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C2549D-01DF-4511-906F-B35F53896A87}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -792,7 +792,7 @@
       <c r="Q3" s="19"/>
       <c r="R3" s="20"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>12</v>
       </c>
@@ -804,11 +804,12 @@
       <c r="G4" s="11"/>
       <c r="R4" s="9"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="10"/>
+      <c r="H5" s="3"/>
       <c r="R5" s="9"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -883,7 +884,7 @@
       <c r="Q11" s="19"/>
       <c r="R11" s="20"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>23</v>
       </c>
@@ -895,11 +896,12 @@
       <c r="G12" s="11"/>
       <c r="R12" s="9"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="10"/>
+      <c r="H13" s="3"/>
       <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
